--- a/Code/Results/Cases/Case_4_158/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_158/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8009691756901134</v>
+        <v>0.6242483216389303</v>
       </c>
       <c r="C2">
-        <v>0.08040214830134573</v>
+        <v>0.04711193483127829</v>
       </c>
       <c r="D2">
-        <v>0.4192953203024246</v>
+        <v>0.6218071849043838</v>
       </c>
       <c r="E2">
-        <v>0.148948192743962</v>
+        <v>0.2328265924522839</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.46729707587096</v>
+        <v>3.343399241024144</v>
       </c>
       <c r="H2">
-        <v>2.005179612750311</v>
+        <v>2.492473251076007</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06244537091328084</v>
+        <v>0.1057256128926127</v>
       </c>
       <c r="K2">
-        <v>0.788789121499434</v>
+        <v>0.5928307476229691</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.356106249819419</v>
+        <v>0.4046693509676231</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6961742443315302</v>
+        <v>0.6038341079080283</v>
       </c>
       <c r="C3">
-        <v>0.06886563401799606</v>
+        <v>0.04536461164018135</v>
       </c>
       <c r="D3">
-        <v>0.3853968595634285</v>
+        <v>0.6164722342893185</v>
       </c>
       <c r="E3">
-        <v>0.1379894259842693</v>
+        <v>0.2311791786835542</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.20451713474111</v>
+        <v>3.270865788480393</v>
       </c>
       <c r="H3">
-        <v>1.886476594219772</v>
+        <v>2.461904748980345</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05866704048950666</v>
+        <v>0.105205887210257</v>
       </c>
       <c r="K3">
-        <v>0.6830046945136274</v>
+        <v>0.5731166599070718</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3157346358854838</v>
+        <v>0.3979037422451697</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6330524522992107</v>
+        <v>0.591822810942773</v>
       </c>
       <c r="C4">
-        <v>0.06192705646446939</v>
+        <v>0.04435308912982805</v>
       </c>
       <c r="D4">
-        <v>0.3651888674704935</v>
+        <v>0.6134784389149104</v>
       </c>
       <c r="E4">
-        <v>0.131469350746368</v>
+        <v>0.2302649964697849</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.046714666891717</v>
+        <v>3.227099439017593</v>
       </c>
       <c r="H4">
-        <v>1.815464219423973</v>
+        <v>2.443663051185041</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05642794541764928</v>
+        <v>0.1049244909895748</v>
       </c>
       <c r="K4">
-        <v>0.6193054261635922</v>
+        <v>0.561552292982384</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2915406136850649</v>
+        <v>0.3940231699484755</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6076037402590657</v>
+        <v>0.5870595386332411</v>
       </c>
       <c r="C5">
-        <v>0.0591311103139347</v>
+        <v>0.04395625349270915</v>
       </c>
       <c r="D5">
-        <v>0.3570941374130854</v>
+        <v>0.6123293235247331</v>
       </c>
       <c r="E5">
-        <v>0.1288607732277711</v>
+        <v>0.2299169340166536</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.983212335795457</v>
+        <v>3.209456750158637</v>
       </c>
       <c r="H5">
-        <v>1.786955457614766</v>
+        <v>2.436361672836341</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05553432194387398</v>
+        <v>0.1048193024060069</v>
       </c>
       <c r="K5">
-        <v>0.5936268780232297</v>
+        <v>0.5569753729473916</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2818167231404942</v>
+        <v>0.3925105569239804</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6033936124020727</v>
+        <v>0.5862765357636306</v>
       </c>
       <c r="C6">
-        <v>0.05866861836697268</v>
+        <v>0.04389128579252599</v>
       </c>
       <c r="D6">
-        <v>0.3557581426033778</v>
+        <v>0.6121427948087046</v>
       </c>
       <c r="E6">
-        <v>0.1284304314081517</v>
+        <v>0.2298606166624566</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.972713892443323</v>
+        <v>3.206538788667586</v>
       </c>
       <c r="H6">
-        <v>1.78224637962515</v>
+        <v>2.435157261816585</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05538703183122351</v>
+        <v>0.1048024086091459</v>
       </c>
       <c r="K6">
-        <v>0.5893788606404087</v>
+        <v>0.5562235670655298</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2802098628507608</v>
+        <v>0.3922635402619505</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6327081754499204</v>
+        <v>0.5917580397816948</v>
       </c>
       <c r="C7">
-        <v>0.06188922762304117</v>
+        <v>0.04434767511605742</v>
       </c>
       <c r="D7">
-        <v>0.3650791468866572</v>
+        <v>0.6134626545510429</v>
       </c>
       <c r="E7">
-        <v>0.1314339797149024</v>
+        <v>0.2302602032840717</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.045855110941972</v>
+        <v>3.226860725689761</v>
       </c>
       <c r="H7">
-        <v>1.815078054295043</v>
+        <v>2.443564047243058</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05641581937043583</v>
+        <v>0.1049230339867329</v>
       </c>
       <c r="K7">
-        <v>0.6189580300363247</v>
+        <v>0.5614900180109714</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2914089436305574</v>
+        <v>0.3940024919875853</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7645611020823537</v>
+        <v>0.6171008502637108</v>
       </c>
       <c r="C8">
-        <v>0.07639123896689171</v>
+        <v>0.04649669124367506</v>
       </c>
       <c r="D8">
-        <v>0.4074737954014438</v>
+        <v>0.6199091835094777</v>
       </c>
       <c r="E8">
-        <v>0.1451237617574677</v>
+        <v>0.2322383596436879</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.375899590186805</v>
+        <v>3.318229348915395</v>
       </c>
       <c r="H8">
-        <v>1.963836485837362</v>
+        <v>2.481823511231596</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0611248930168955</v>
+        <v>0.1055385817606265</v>
       </c>
       <c r="K8">
-        <v>0.7520323175154715</v>
+        <v>0.5859211033101133</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3420539501093174</v>
+        <v>0.402279772569436</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.034488554127506</v>
+        <v>0.6709578984147697</v>
       </c>
       <c r="C9">
-        <v>0.1062211068369692</v>
+        <v>0.05120056582471477</v>
       </c>
       <c r="D9">
-        <v>0.496017422603785</v>
+        <v>0.6347890303572399</v>
       </c>
       <c r="E9">
-        <v>0.1738259762980761</v>
+        <v>0.2368904115495383</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4.055599233467092</v>
+        <v>3.503565833452001</v>
       </c>
       <c r="H9">
-        <v>2.272444105712538</v>
+        <v>2.561057706534427</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07107463810417158</v>
+        <v>0.1070451891482449</v>
       </c>
       <c r="K9">
-        <v>1.024698079645134</v>
+        <v>0.6381283138268259</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4467821492053332</v>
+        <v>0.4206850046007702</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.242299103646303</v>
+        <v>0.7130813828496514</v>
       </c>
       <c r="C10">
-        <v>0.1293613690496755</v>
+        <v>0.05495965706795403</v>
       </c>
       <c r="D10">
-        <v>0.5652937616686131</v>
+        <v>0.6470900958042876</v>
       </c>
       <c r="E10">
-        <v>0.196355228605924</v>
+        <v>0.2407809504866023</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.581471917719142</v>
+        <v>3.643584228727832</v>
       </c>
       <c r="H10">
-        <v>2.5126171004828</v>
+        <v>2.621873998738494</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07893490550837612</v>
+        <v>0.1083352835350979</v>
       </c>
       <c r="K10">
-        <v>1.234894912428928</v>
+        <v>0.6791275767423315</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.52810402098374</v>
+        <v>0.435539062135021</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.339546726548093</v>
+        <v>0.7328037067759112</v>
       </c>
       <c r="C11">
-        <v>0.1402503117237899</v>
+        <v>0.05673664772950815</v>
       </c>
       <c r="D11">
-        <v>0.5979597079098085</v>
+        <v>0.6529845206261768</v>
       </c>
       <c r="E11">
-        <v>0.2069954819599573</v>
+        <v>0.2426538771520512</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.828140380633215</v>
+        <v>3.70813995142845</v>
       </c>
       <c r="H11">
-        <v>2.625585267842041</v>
+        <v>2.650114773607299</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08265898082583334</v>
+        <v>0.1089621079877077</v>
       </c>
       <c r="K11">
-        <v>1.33335278782701</v>
+        <v>0.6983583688295596</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5663222382375821</v>
+        <v>0.4425873798903197</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.376822968518184</v>
+        <v>0.7403528468807679</v>
       </c>
       <c r="C12">
-        <v>0.1444349188430749</v>
+        <v>0.05741925415473759</v>
       </c>
       <c r="D12">
-        <v>0.6105169881102768</v>
+        <v>0.6552595799144285</v>
       </c>
       <c r="E12">
-        <v>0.2110883128592036</v>
+        <v>0.2433779507592035</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.922775760386685</v>
+        <v>3.732710695750143</v>
       </c>
       <c r="H12">
-        <v>2.668971194066955</v>
+        <v>2.660892079102894</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08409323700780647</v>
+        <v>0.1092052234326033</v>
       </c>
       <c r="K12">
-        <v>1.371109506578819</v>
+        <v>0.705724308003056</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5809961867977265</v>
+        <v>0.4452983523398473</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.368773780721313</v>
+        <v>0.7387234113617467</v>
       </c>
       <c r="C13">
-        <v>0.1435308098308354</v>
+        <v>0.05727181017375926</v>
       </c>
       <c r="D13">
-        <v>0.6078038452875489</v>
+        <v>0.6547676936616256</v>
       </c>
       <c r="E13">
-        <v>0.2102038949198217</v>
+        <v>0.2432213484891506</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.902337065203824</v>
+        <v>3.727413373545176</v>
       </c>
       <c r="H13">
-        <v>2.659598987104459</v>
+        <v>2.658567289045664</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08378322938701643</v>
+        <v>0.1091526083230576</v>
       </c>
       <c r="K13">
-        <v>1.36295577889544</v>
+        <v>0.7041341965384902</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5778264886814313</v>
+        <v>0.4447126301400104</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.342604061841229</v>
+        <v>0.7334231602038983</v>
       </c>
       <c r="C14">
-        <v>0.1405932991555687</v>
+        <v>0.05679261139172809</v>
       </c>
       <c r="D14">
-        <v>0.5989889136629927</v>
+        <v>0.6531708297936518</v>
       </c>
       <c r="E14">
-        <v>0.2073308822974127</v>
+        <v>0.2427131497022188</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.835900531303366</v>
+        <v>3.710158891788296</v>
       </c>
       <c r="H14">
-        <v>2.629142031453341</v>
+        <v>2.650999760333264</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08277647984218106</v>
+        <v>0.1089819939589205</v>
       </c>
       <c r="K14">
-        <v>1.336449181223202</v>
+        <v>0.6989626910370248</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5675252772862649</v>
+        <v>0.4428095725624885</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.326634958474045</v>
+        <v>0.7301871213678339</v>
       </c>
       <c r="C15">
-        <v>0.1388022484941587</v>
+        <v>0.05650035344200433</v>
       </c>
       <c r="D15">
-        <v>0.5936146062770149</v>
+        <v>0.6521983012464432</v>
       </c>
       <c r="E15">
-        <v>0.2055795919411665</v>
+        <v>0.2424037958236838</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.795371027379417</v>
+        <v>3.699606322037482</v>
       </c>
       <c r="H15">
-        <v>2.610567682733631</v>
+        <v>2.646375270299245</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08216303114653556</v>
+        <v>0.1088782367989296</v>
       </c>
       <c r="K15">
-        <v>1.320276754718662</v>
+        <v>0.6958058965683449</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5612425401075853</v>
+        <v>0.441649356973393</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.236003360492418</v>
+        <v>0.7118037689550931</v>
       </c>
       <c r="C16">
-        <v>0.1286577946152505</v>
+        <v>0.05484487990379705</v>
       </c>
       <c r="D16">
-        <v>0.5631839478695611</v>
+        <v>0.6467108924599358</v>
       </c>
       <c r="E16">
-        <v>0.195668347191635</v>
+        <v>0.2406606259098396</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.565514386596959</v>
+        <v>3.639382775555049</v>
       </c>
       <c r="H16">
-        <v>2.505315164491321</v>
+        <v>2.620040007821075</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07869473768388957</v>
+        <v>0.1082951235045186</v>
       </c>
       <c r="K16">
-        <v>1.228522935646538</v>
+        <v>0.6778824918633291</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.525633121036222</v>
+        <v>0.4350843016263752</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.181139727880833</v>
+        <v>0.7006697659845997</v>
       </c>
       <c r="C17">
-        <v>0.1225334324688845</v>
+        <v>0.05384650000532076</v>
       </c>
       <c r="D17">
-        <v>0.5448254617465693</v>
+        <v>0.6434210454270612</v>
       </c>
       <c r="E17">
-        <v>0.1896933466182702</v>
+        <v>0.239617661887138</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.426518030421249</v>
+        <v>3.602658817108619</v>
       </c>
       <c r="H17">
-        <v>2.441746738276635</v>
+        <v>2.604031790406452</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07660688101277913</v>
+        <v>0.107947639229053</v>
       </c>
       <c r="K17">
-        <v>1.173005639115644</v>
+        <v>0.6670357954889994</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5041187354786842</v>
+        <v>0.4311314625111464</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.149835027929583</v>
+        <v>0.6943184938877494</v>
       </c>
       <c r="C18">
-        <v>0.1190443583961951</v>
+        <v>0.05327855674399018</v>
       </c>
       <c r="D18">
-        <v>0.5343731187668368</v>
+        <v>0.6415569169627702</v>
       </c>
       <c r="E18">
-        <v>0.1862930599578831</v>
+        <v>0.2390274801982102</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.347261541319909</v>
+        <v>3.581617107984187</v>
       </c>
       <c r="H18">
-        <v>2.405528420238454</v>
+        <v>2.594878395758172</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07541979123635656</v>
+        <v>0.1077515357922749</v>
       </c>
       <c r="K18">
-        <v>1.141336421356868</v>
+        <v>0.660851641561635</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4918577986766266</v>
+        <v>0.4288852927865889</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.139277241817496</v>
+        <v>0.6921771103567096</v>
       </c>
       <c r="C19">
-        <v>0.1178685115184095</v>
+        <v>0.05308734057854281</v>
       </c>
       <c r="D19">
-        <v>0.5308518835194889</v>
+        <v>0.6409305812368871</v>
       </c>
       <c r="E19">
-        <v>0.1851478199182637</v>
+        <v>0.2388293211028056</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.320540763613195</v>
+        <v>3.574506614056389</v>
       </c>
       <c r="H19">
-        <v>2.393322589547807</v>
+        <v>2.591788493695702</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07502015441558996</v>
+        <v>0.1076857842222125</v>
       </c>
       <c r="K19">
-        <v>1.130657062851014</v>
+        <v>0.6587671598393854</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4877252324961674</v>
+        <v>0.4281294822172939</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.186953618903658</v>
+        <v>0.7018495428768006</v>
       </c>
       <c r="C20">
-        <v>0.1231818520556374</v>
+        <v>0.05395212688469542</v>
       </c>
       <c r="D20">
-        <v>0.5467685327140543</v>
+        <v>0.6437683463454391</v>
       </c>
       <c r="E20">
-        <v>0.1903255806878832</v>
+        <v>0.2397276828213961</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.441241882371486</v>
+        <v>3.606559759989779</v>
       </c>
       <c r="H20">
-        <v>2.44847753855754</v>
+        <v>2.605730289361901</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07682769116810562</v>
+        <v>0.1079842403062941</v>
       </c>
       <c r="K20">
-        <v>1.178887899622424</v>
+        <v>0.6681847943530954</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.506397049397755</v>
+        <v>0.4315494128706661</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.350277994666016</v>
+        <v>0.7349777801722155</v>
       </c>
       <c r="C21">
-        <v>0.1414543781248625</v>
+        <v>0.05693309990984119</v>
       </c>
       <c r="D21">
-        <v>0.6015728010386283</v>
+        <v>0.6536387010213218</v>
       </c>
       <c r="E21">
-        <v>0.208172967478248</v>
+        <v>0.2428620172414711</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.855379904488132</v>
+        <v>3.715223552700479</v>
       </c>
       <c r="H21">
-        <v>2.638070867465558</v>
+        <v>2.653220267168081</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08307151145110225</v>
+        <v>0.1090319514192331</v>
       </c>
       <c r="K21">
-        <v>1.344221424692279</v>
+        <v>0.7004794151423539</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5705453054420744</v>
+        <v>0.4433674082841534</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.45968010164458</v>
+        <v>0.7570996078193843</v>
       </c>
       <c r="C22">
-        <v>0.1537583267205775</v>
+        <v>0.05893790252024189</v>
       </c>
       <c r="D22">
-        <v>0.6384948038062817</v>
+        <v>0.6603400173897853</v>
       </c>
       <c r="E22">
-        <v>0.2202119703125618</v>
+        <v>0.244996972781685</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.133283129412177</v>
+        <v>3.786970127882398</v>
       </c>
       <c r="H22">
-        <v>2.76556141267821</v>
+        <v>2.684742503163022</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08729375219657953</v>
+        <v>0.1097502129568682</v>
       </c>
       <c r="K22">
-        <v>1.455068337960455</v>
+        <v>0.7220735475856941</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6136586519886436</v>
+        <v>0.4513355687225413</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.401024875275567</v>
+        <v>0.7452496507533795</v>
       </c>
       <c r="C23">
-        <v>0.1471550627850888</v>
+        <v>0.05786270258209925</v>
       </c>
       <c r="D23">
-        <v>0.6186799376673946</v>
+        <v>0.6567404704615569</v>
       </c>
       <c r="E23">
-        <v>0.2137496102977394</v>
+        <v>0.2438495893558894</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.984241976371436</v>
+        <v>3.748610595684625</v>
       </c>
       <c r="H23">
-        <v>2.697163183818304</v>
+        <v>2.667873989990028</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08502633979625074</v>
+        <v>0.1093637941780727</v>
       </c>
       <c r="K23">
-        <v>1.395628373577352</v>
+        <v>0.710503640584335</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5905302705691113</v>
+        <v>0.4470604255925821</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.184324424637481</v>
+        <v>0.7013160105924499</v>
       </c>
       <c r="C24">
-        <v>0.1228886028622185</v>
+        <v>0.05390435416794048</v>
       </c>
       <c r="D24">
-        <v>0.5458897536281597</v>
+        <v>0.6436112467290798</v>
       </c>
       <c r="E24">
-        <v>0.1900396397464377</v>
+        <v>0.2396779129785642</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.434583202310876</v>
+        <v>3.604795921445344</v>
       </c>
       <c r="H24">
-        <v>2.445433527504065</v>
+        <v>2.604962242436159</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07672782183527715</v>
+        <v>0.1079676815287272</v>
       </c>
       <c r="K24">
-        <v>1.176227760683673</v>
+        <v>0.6676651707724375</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5053666892591835</v>
+        <v>0.4313603753794197</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9599998806544079</v>
+        <v>0.6559408890243503</v>
       </c>
       <c r="C25">
-        <v>0.09796600329379146</v>
+        <v>0.04987514661300452</v>
       </c>
       <c r="D25">
-        <v>0.4713949399543367</v>
+        <v>0.6305235796982345</v>
       </c>
       <c r="E25">
-        <v>0.1658323615835648</v>
+        <v>0.2355490130001634</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.867592996644049</v>
+        <v>3.452757873053571</v>
       </c>
       <c r="H25">
-        <v>2.1868432735873</v>
+        <v>2.539168411983695</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06829529455479388</v>
+        <v>0.1066054859843888</v>
       </c>
       <c r="K25">
-        <v>0.9494160807234664</v>
+        <v>0.6235424649302672</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4177661074386947</v>
+        <v>0.4154725323017274</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_158/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_158/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6242483216389303</v>
+        <v>0.8009691756899144</v>
       </c>
       <c r="C2">
-        <v>0.04711193483127829</v>
+        <v>0.08040214830160153</v>
       </c>
       <c r="D2">
-        <v>0.6218071849043838</v>
+        <v>0.4192953203025525</v>
       </c>
       <c r="E2">
-        <v>0.2328265924522839</v>
+        <v>0.1489481927440401</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.343399241024144</v>
+        <v>3.467297075871045</v>
       </c>
       <c r="H2">
-        <v>2.492473251076007</v>
+        <v>2.005179612750453</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1057256128926127</v>
+        <v>0.062445370913359</v>
       </c>
       <c r="K2">
-        <v>0.5928307476229691</v>
+        <v>0.7887891214994909</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4046693509676231</v>
+        <v>0.3561062498194332</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6038341079080283</v>
+        <v>0.6961742443316439</v>
       </c>
       <c r="C3">
-        <v>0.04536461164018135</v>
+        <v>0.06886563401843659</v>
       </c>
       <c r="D3">
-        <v>0.6164722342893185</v>
+        <v>0.3853968595632438</v>
       </c>
       <c r="E3">
-        <v>0.2311791786835542</v>
+        <v>0.1379894259841485</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.270865788480393</v>
+        <v>3.204517134741081</v>
       </c>
       <c r="H3">
-        <v>2.461904748980345</v>
+        <v>1.886476594219744</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.105205887210257</v>
+        <v>0.05866704048935389</v>
       </c>
       <c r="K3">
-        <v>0.5731166599070718</v>
+        <v>0.6830046945136701</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3979037422451697</v>
+        <v>0.3157346358854909</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.591822810942773</v>
+        <v>0.633052452299097</v>
       </c>
       <c r="C4">
-        <v>0.04435308912982805</v>
+        <v>0.06192705646401464</v>
       </c>
       <c r="D4">
-        <v>0.6134784389149104</v>
+        <v>0.3651888674706214</v>
       </c>
       <c r="E4">
-        <v>0.2302649964697849</v>
+        <v>0.1314693507463467</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.227099439017593</v>
+        <v>3.046714666891688</v>
       </c>
       <c r="H4">
-        <v>2.443663051185041</v>
+        <v>1.815464219424086</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1049244909895748</v>
+        <v>0.05642794541767415</v>
       </c>
       <c r="K4">
-        <v>0.561552292982384</v>
+        <v>0.6193054261635353</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3940231699484755</v>
+        <v>0.2915406136850791</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5870595386332411</v>
+        <v>0.6076037402592078</v>
       </c>
       <c r="C5">
-        <v>0.04395625349270915</v>
+        <v>0.05913111031416918</v>
       </c>
       <c r="D5">
-        <v>0.6123293235247331</v>
+        <v>0.3570941374130712</v>
       </c>
       <c r="E5">
-        <v>0.2299169340166536</v>
+        <v>0.1288607732277143</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.209456750158637</v>
+        <v>2.9832123357954</v>
       </c>
       <c r="H5">
-        <v>2.436361672836341</v>
+        <v>1.78695545761488</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1048193024060069</v>
+        <v>0.0555343219439095</v>
       </c>
       <c r="K5">
-        <v>0.5569753729473916</v>
+        <v>0.5936268780231018</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3925105569239804</v>
+        <v>0.2818167231405013</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5862765357636306</v>
+        <v>0.6033936124021295</v>
       </c>
       <c r="C6">
-        <v>0.04389128579252599</v>
+        <v>0.05866861836722137</v>
       </c>
       <c r="D6">
-        <v>0.6121427948087046</v>
+        <v>0.3557581426034773</v>
       </c>
       <c r="E6">
-        <v>0.2298606166624566</v>
+        <v>0.128430431408173</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.206538788667586</v>
+        <v>2.972713892443323</v>
       </c>
       <c r="H6">
-        <v>2.435157261816585</v>
+        <v>1.782246379625263</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1048024086091459</v>
+        <v>0.05538703183118443</v>
       </c>
       <c r="K6">
-        <v>0.5562235670655298</v>
+        <v>0.5893788606404655</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3922635402619505</v>
+        <v>0.2802098628507537</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5917580397816948</v>
+        <v>0.632708175449892</v>
       </c>
       <c r="C7">
-        <v>0.04434767511605742</v>
+        <v>0.06188922762306959</v>
       </c>
       <c r="D7">
-        <v>0.6134626545510429</v>
+        <v>0.3650791468869556</v>
       </c>
       <c r="E7">
-        <v>0.2302602032840717</v>
+        <v>0.1314339797149202</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.226860725689761</v>
+        <v>3.045855110941972</v>
       </c>
       <c r="H7">
-        <v>2.443564047243058</v>
+        <v>1.815078054295157</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1049230339867329</v>
+        <v>0.05641581937051399</v>
       </c>
       <c r="K7">
-        <v>0.5614900180109714</v>
+        <v>0.6189580300363957</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3940024919875853</v>
+        <v>0.291408943630536</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6171008502637108</v>
+        <v>0.7645611020823537</v>
       </c>
       <c r="C8">
-        <v>0.04649669124367506</v>
+        <v>0.07639123896666433</v>
       </c>
       <c r="D8">
-        <v>0.6199091835094777</v>
+        <v>0.4074737954014154</v>
       </c>
       <c r="E8">
-        <v>0.2322383596436879</v>
+        <v>0.1451237617574925</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.318229348915395</v>
+        <v>3.37589959018689</v>
       </c>
       <c r="H8">
-        <v>2.481823511231596</v>
+        <v>1.963836485837362</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1055385817606265</v>
+        <v>0.06112489301673563</v>
       </c>
       <c r="K8">
-        <v>0.5859211033101133</v>
+        <v>0.7520323175154431</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.402279772569436</v>
+        <v>0.3420539501093316</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6709578984147697</v>
+        <v>1.034488554127677</v>
       </c>
       <c r="C9">
-        <v>0.05120056582471477</v>
+        <v>0.1062211068366992</v>
       </c>
       <c r="D9">
-        <v>0.6347890303572399</v>
+        <v>0.4960174226041545</v>
       </c>
       <c r="E9">
-        <v>0.2368904115495383</v>
+        <v>0.1738259762980334</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.503565833452001</v>
+        <v>4.055599233467007</v>
       </c>
       <c r="H9">
-        <v>2.561057706534427</v>
+        <v>2.272444105712538</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1070451891482449</v>
+        <v>0.071074638104065</v>
       </c>
       <c r="K9">
-        <v>0.6381283138268259</v>
+        <v>1.024698079645049</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4206850046007702</v>
+        <v>0.4467821492053332</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7130813828496514</v>
+        <v>1.24229910364636</v>
       </c>
       <c r="C10">
-        <v>0.05495965706795403</v>
+        <v>0.1293613690497324</v>
       </c>
       <c r="D10">
-        <v>0.6470900958042876</v>
+        <v>0.565293761668471</v>
       </c>
       <c r="E10">
-        <v>0.2407809504866023</v>
+        <v>0.196355228605924</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.643584228727832</v>
+        <v>4.581471917719171</v>
       </c>
       <c r="H10">
-        <v>2.621873998738494</v>
+        <v>2.512617100482913</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1083352835350979</v>
+        <v>0.07893490550836901</v>
       </c>
       <c r="K10">
-        <v>0.6791275767423315</v>
+        <v>1.234894912429013</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.435539062135021</v>
+        <v>0.5281040209837329</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7328037067759112</v>
+        <v>1.339546726548036</v>
       </c>
       <c r="C11">
-        <v>0.05673664772950815</v>
+        <v>0.1402503117229799</v>
       </c>
       <c r="D11">
-        <v>0.6529845206261768</v>
+        <v>0.5979597079095811</v>
       </c>
       <c r="E11">
-        <v>0.2426538771520512</v>
+        <v>0.2069954819599999</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.70813995142845</v>
+        <v>4.828140380633215</v>
       </c>
       <c r="H11">
-        <v>2.650114773607299</v>
+        <v>2.625585267842041</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1089621079877077</v>
+        <v>0.08265898082589729</v>
       </c>
       <c r="K11">
-        <v>0.6983583688295596</v>
+        <v>1.333352787827039</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4425873798903197</v>
+        <v>0.5663222382375963</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7403528468807679</v>
+        <v>1.376822968518297</v>
       </c>
       <c r="C12">
-        <v>0.05741925415473759</v>
+        <v>0.1444349188430749</v>
       </c>
       <c r="D12">
-        <v>0.6552595799144285</v>
+        <v>0.6105169881104473</v>
       </c>
       <c r="E12">
-        <v>0.2433779507592035</v>
+        <v>0.2110883128592462</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.732710695750143</v>
+        <v>4.922775760386912</v>
       </c>
       <c r="H12">
-        <v>2.660892079102894</v>
+        <v>2.668971194066842</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1092052234326033</v>
+        <v>0.08409323700801963</v>
       </c>
       <c r="K12">
-        <v>0.705724308003056</v>
+        <v>1.371109506578904</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4452983523398473</v>
+        <v>0.5809961867977478</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7387234113617467</v>
+        <v>1.368773780721256</v>
       </c>
       <c r="C13">
-        <v>0.05727181017375926</v>
+        <v>0.1435308098305654</v>
       </c>
       <c r="D13">
-        <v>0.6547676936616256</v>
+        <v>0.6078038452874353</v>
       </c>
       <c r="E13">
-        <v>0.2432213484891506</v>
+        <v>0.2102038949198359</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.727413373545176</v>
+        <v>4.90233706520371</v>
       </c>
       <c r="H13">
-        <v>2.658567289045664</v>
+        <v>2.659598987104459</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1091526083230576</v>
+        <v>0.08378322938688143</v>
       </c>
       <c r="K13">
-        <v>0.7041341965384902</v>
+        <v>1.362955778895383</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4447126301400104</v>
+        <v>0.5778264886814313</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7334231602038983</v>
+        <v>1.342604061841229</v>
       </c>
       <c r="C14">
-        <v>0.05679261139172809</v>
+        <v>0.1405932991557535</v>
       </c>
       <c r="D14">
-        <v>0.6531708297936518</v>
+        <v>0.5989889136625095</v>
       </c>
       <c r="E14">
-        <v>0.2427131497022188</v>
+        <v>0.2073308822974269</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.710158891788296</v>
+        <v>4.835900531303594</v>
       </c>
       <c r="H14">
-        <v>2.650999760333264</v>
+        <v>2.629142031453398</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1089819939589205</v>
+        <v>0.08277647984231606</v>
       </c>
       <c r="K14">
-        <v>0.6989626910370248</v>
+        <v>1.336449181223173</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4428095725624885</v>
+        <v>0.5675252772862578</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7301871213678339</v>
+        <v>1.326634958474017</v>
       </c>
       <c r="C15">
-        <v>0.05650035344200433</v>
+        <v>0.1388022484942439</v>
       </c>
       <c r="D15">
-        <v>0.6521983012464432</v>
+        <v>0.5936146062768159</v>
       </c>
       <c r="E15">
-        <v>0.2424037958236838</v>
+        <v>0.2055795919411736</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.699606322037482</v>
+        <v>4.795371027379588</v>
       </c>
       <c r="H15">
-        <v>2.646375270299245</v>
+        <v>2.610567682733574</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1088782367989296</v>
+        <v>0.08216303114673451</v>
       </c>
       <c r="K15">
-        <v>0.6958058965683449</v>
+        <v>1.320276754718691</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.441649356973393</v>
+        <v>0.5612425401075853</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7118037689550931</v>
+        <v>1.236003360492134</v>
       </c>
       <c r="C16">
-        <v>0.05484487990379705</v>
+        <v>0.1286577946152221</v>
       </c>
       <c r="D16">
-        <v>0.6467108924599358</v>
+        <v>0.5631839478693053</v>
       </c>
       <c r="E16">
-        <v>0.2406606259098396</v>
+        <v>0.1956683471915426</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.639382775555049</v>
+        <v>4.565514386596931</v>
       </c>
       <c r="H16">
-        <v>2.620040007821075</v>
+        <v>2.50531516449135</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1082951235045186</v>
+        <v>0.07869473768388957</v>
       </c>
       <c r="K16">
-        <v>0.6778824918633291</v>
+        <v>1.228522935646595</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4350843016263752</v>
+        <v>0.5256331210362006</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7006697659845997</v>
+        <v>1.181139727880804</v>
       </c>
       <c r="C17">
-        <v>0.05384650000532076</v>
+        <v>0.1225334324683729</v>
       </c>
       <c r="D17">
-        <v>0.6434210454270612</v>
+        <v>0.5448254617462851</v>
       </c>
       <c r="E17">
-        <v>0.239617661887138</v>
+        <v>0.1896933466182844</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.602658817108619</v>
+        <v>4.426518030421249</v>
       </c>
       <c r="H17">
-        <v>2.604031790406452</v>
+        <v>2.441746738276521</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.107947639229053</v>
+        <v>0.07660688101277202</v>
       </c>
       <c r="K17">
-        <v>0.6670357954889994</v>
+        <v>1.173005639115928</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4311314625111464</v>
+        <v>0.50411873547867</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6943184938877494</v>
+        <v>1.149835027929385</v>
       </c>
       <c r="C18">
-        <v>0.05327855674399018</v>
+        <v>0.1190443583960104</v>
       </c>
       <c r="D18">
-        <v>0.6415569169627702</v>
+        <v>0.5343731187664389</v>
       </c>
       <c r="E18">
-        <v>0.2390274801982102</v>
+        <v>0.1862930599579045</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.581617107984187</v>
+        <v>4.347261541319853</v>
       </c>
       <c r="H18">
-        <v>2.594878395758172</v>
+        <v>2.405528420238511</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1077515357922749</v>
+        <v>0.07541979123629261</v>
       </c>
       <c r="K18">
-        <v>0.660851641561635</v>
+        <v>1.141336421356897</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4288852927865889</v>
+        <v>0.4918577986766479</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6921771103567096</v>
+        <v>1.139277241817581</v>
       </c>
       <c r="C19">
-        <v>0.05308734057854281</v>
+        <v>0.1178685115181679</v>
       </c>
       <c r="D19">
-        <v>0.6409305812368871</v>
+        <v>0.5308518835194889</v>
       </c>
       <c r="E19">
-        <v>0.2388293211028056</v>
+        <v>0.18514781991815</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.574506614056389</v>
+        <v>4.32054076361328</v>
       </c>
       <c r="H19">
-        <v>2.591788493695702</v>
+        <v>2.393322589547836</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1076857842222125</v>
+        <v>0.07502015441546916</v>
       </c>
       <c r="K19">
-        <v>0.6587671598393854</v>
+        <v>1.130657062851014</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4281294822172939</v>
+        <v>0.4877252324961887</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7018495428768006</v>
+        <v>1.186953618903686</v>
       </c>
       <c r="C20">
-        <v>0.05395212688469542</v>
+        <v>0.1231818520556942</v>
       </c>
       <c r="D20">
-        <v>0.6437683463454391</v>
+        <v>0.5467685327140828</v>
       </c>
       <c r="E20">
-        <v>0.2397276828213961</v>
+        <v>0.1903255806878903</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.606559759989779</v>
+        <v>4.441241882371429</v>
       </c>
       <c r="H20">
-        <v>2.605730289361901</v>
+        <v>2.44847753855754</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1079842403062941</v>
+        <v>0.07682769116803456</v>
       </c>
       <c r="K20">
-        <v>0.6681847943530954</v>
+        <v>1.178887899622424</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4315494128706661</v>
+        <v>0.5063970493977692</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7349777801722155</v>
+        <v>1.350277994666016</v>
       </c>
       <c r="C21">
-        <v>0.05693309990984119</v>
+        <v>0.1414543781251467</v>
       </c>
       <c r="D21">
-        <v>0.6536387010213218</v>
+        <v>0.6015728010386852</v>
       </c>
       <c r="E21">
-        <v>0.2428620172414711</v>
+        <v>0.2081729674782835</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.715223552700479</v>
+        <v>4.855379904488188</v>
       </c>
       <c r="H21">
-        <v>2.653220267168081</v>
+        <v>2.638070867465558</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1090319514192331</v>
+        <v>0.08307151145108094</v>
       </c>
       <c r="K21">
-        <v>0.7004794151423539</v>
+        <v>1.344221424692137</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4433674082841534</v>
+        <v>0.5705453054420957</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7570996078193843</v>
+        <v>1.459680101644608</v>
       </c>
       <c r="C22">
-        <v>0.05893790252024189</v>
+        <v>0.1537583267208902</v>
       </c>
       <c r="D22">
-        <v>0.6603400173897853</v>
+        <v>0.6384948038065374</v>
       </c>
       <c r="E22">
-        <v>0.244996972781685</v>
+        <v>0.2202119703125547</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.786970127882398</v>
+        <v>5.133283129412177</v>
       </c>
       <c r="H22">
-        <v>2.684742503163022</v>
+        <v>2.765561412678267</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1097502129568682</v>
+        <v>0.08729375219664348</v>
       </c>
       <c r="K22">
-        <v>0.7220735475856941</v>
+        <v>1.455068337960427</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4513355687225413</v>
+        <v>0.6136586519886578</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7452496507533795</v>
+        <v>1.401024875275795</v>
       </c>
       <c r="C23">
-        <v>0.05786270258209925</v>
+        <v>0.1471550627854157</v>
       </c>
       <c r="D23">
-        <v>0.6567404704615569</v>
+        <v>0.6186799376667693</v>
       </c>
       <c r="E23">
-        <v>0.2438495893558894</v>
+        <v>0.2137496102977821</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.748610595684625</v>
+        <v>4.984241976371493</v>
       </c>
       <c r="H23">
-        <v>2.667873989990028</v>
+        <v>2.697163183818304</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1093637941780727</v>
+        <v>0.08502633979602336</v>
       </c>
       <c r="K23">
-        <v>0.710503640584335</v>
+        <v>1.39562837357758</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4470604255925821</v>
+        <v>0.5905302705691113</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7013160105924499</v>
+        <v>1.184324424637538</v>
       </c>
       <c r="C24">
-        <v>0.05390435416794048</v>
+        <v>0.1228886028616785</v>
       </c>
       <c r="D24">
-        <v>0.6436112467290798</v>
+        <v>0.5458897536279039</v>
       </c>
       <c r="E24">
-        <v>0.2396779129785642</v>
+        <v>0.1900396397464235</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.604795921445344</v>
+        <v>4.434583202310989</v>
       </c>
       <c r="H24">
-        <v>2.604962242436159</v>
+        <v>2.445433527504008</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1079676815287272</v>
+        <v>0.07672782183509952</v>
       </c>
       <c r="K24">
-        <v>0.6676651707724375</v>
+        <v>1.176227760683759</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4313603753794197</v>
+        <v>0.5053666892591693</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6559408890243503</v>
+        <v>0.9599998806542089</v>
       </c>
       <c r="C25">
-        <v>0.04987514661300452</v>
+        <v>0.09796600329330829</v>
       </c>
       <c r="D25">
-        <v>0.6305235796982345</v>
+        <v>0.4713949399539956</v>
       </c>
       <c r="E25">
-        <v>0.2355490130001634</v>
+        <v>0.165832361583611</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.452757873053571</v>
+        <v>3.867592996643964</v>
       </c>
       <c r="H25">
-        <v>2.539168411983695</v>
+        <v>2.1868432735873</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1066054859843888</v>
+        <v>0.06829529455477257</v>
       </c>
       <c r="K25">
-        <v>0.6235424649302672</v>
+        <v>0.9494160807234096</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4154725323017274</v>
+        <v>0.4177661074386805</v>
       </c>
       <c r="N25">
         <v>0</v>
